--- a/tripAdvisor/src/main/resources/TripAdvisor_AffiliatesPage_ExpectedElements.xlsx
+++ b/tripAdvisor/src/main/resources/TripAdvisor_AffiliatesPage_ExpectedElements.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamin\IdeaProjects\AutomationFramework_Team3\tripAdvisor\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9994E1E-BF03-48FE-B848-0127C8EC1CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D24D7-E565-4FB4-930B-2F29BD264C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="affiliatesPageTitle" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,12 @@
     <sheet name="countryMenu" sheetId="7" r:id="rId7"/>
     <sheet name="footerSectionLinksCount" sheetId="8" r:id="rId8"/>
     <sheet name="footerSectionsLinks" sheetId="9" r:id="rId9"/>
+    <sheet name="postPhotoTitle" sheetId="10" r:id="rId10"/>
+    <sheet name="postReviewTitle" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Tripadvisor Affiliate Program</t>
   </si>
@@ -60,12 +62,19 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/pages/serviceEN.html</t>
+  </si>
+  <si>
+    <t>Post photos - Tripadvisor</t>
+  </si>
+  <si>
+    <t>Write a review - Tripadvisor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,6 +413,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4E65AB-CB50-446C-94C9-4A711A61277F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D92ED0-F7C7-4F09-85E0-7E2028ADDDE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA801F96-FDD4-467A-B374-4DBEC76AFD72}">
   <dimension ref="A1"/>
@@ -430,7 +482,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="246.3984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="246.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -547,11 +599,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDE53AF-2257-4C4D-9025-E0287E50D3D5}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="57.06640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="57.06640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
